--- a/data/scenario_1.xlsx
+++ b/data/scenario_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rrag0004/Documents/Code/tb_hierarchical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA3704-8364-6A41-BBE2-02B23B6BFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80114E46-C0B2-9844-88BC-30283BDB07E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="2200" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{83584039-3D06-BD43-BEF4-E53EBCB45D90}"/>
+    <workbookView xWindow="40160" yWindow="3240" windowWidth="27640" windowHeight="16940" xr2:uid="{83584039-3D06-BD43-BEF4-E53EBCB45D90}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>raw_transmission_rate</t>
   </si>
   <si>
     <t>distribution</t>
@@ -446,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5BE014-A301-E74F-BF98-E7854043FC0A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="216" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,16 +460,11 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -483,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8D1C76-CC45-5A4C-BC3F-54A9DF3A1325}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1"/>
     </row>

--- a/data/scenario_1.xlsx
+++ b/data/scenario_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rrag0004/Documents/Code/tb_hierarchical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80114E46-C0B2-9844-88BC-30283BDB07E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B13C401-0FE1-E44F-9AB1-9AF0D7A8E533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="3240" windowWidth="27640" windowHeight="16940" xr2:uid="{83584039-3D06-BD43-BEF4-E53EBCB45D90}"/>
+    <workbookView xWindow="10200" yWindow="2960" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{83584039-3D06-BD43-BEF4-E53EBCB45D90}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>year</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>distribution</t>
-  </si>
-  <si>
-    <t>pct_tst_scr</t>
   </si>
   <si>
     <t>pct_xpert_scr</t>
@@ -443,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5BE014-A301-E74F-BF98-E7854043FC0A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
+    <sheetView zoomScale="216" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -473,62 +470,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8D1C76-CC45-5A4C-BC3F-54A9DF3A1325}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
         <v>25</v>
       </c>
     </row>
